--- a/data/published/2019_SealeCarlisleWetmoreFloweMickes/testInput.xlsx
+++ b/data/published/2019_SealeCarlisleWetmoreFloweMickes/testInput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2019_Colloff_Flowe_Winsor_etal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2019_SealeCarlisleWetmoreFloweMickes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8CF6F3-C73E-A841-BFE2-A9D70B91FCE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CF673-59C0-2C44-B631-D972C8EADC4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="1280" windowWidth="38960" windowHeight="22380" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
+    <workbookView xWindow="3380" yWindow="7100" windowWidth="38960" windowHeight="20800" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>Data translator</t>
   </si>
@@ -186,19 +186,16 @@
     <t>pAUC</t>
   </si>
   <si>
-    <t>published_Colloff_Flowe_Winsor_2020()</t>
-  </si>
-  <si>
-    <t>ageGroup Young</t>
-  </si>
-  <si>
-    <t>ageGroup Middle</t>
-  </si>
-  <si>
-    <t>ageGroup Late</t>
-  </si>
-  <si>
-    <t>{"includeFinalSample":"yes"}</t>
+    <t>condition Simultaneous</t>
+  </si>
+  <si>
+    <t>condition Sequential</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E1()</t>
   </si>
 </sst>
 </file>
@@ -576,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D299942-CAD7-8B42-80C6-6BA1FC3BDCD5}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,71 +585,51 @@
     <col min="2" max="7" width="20.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="13" width="16.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="1" customWidth="1"/>
-    <col min="15" max="19" width="16.83203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -692,26 +669,8 @@
       <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -751,144 +710,90 @@
       <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,26 +833,8 @@
       <c r="M6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -987,26 +874,8 @@
       <c r="M7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1046,61 +915,43 @@
       <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>

--- a/data/published/2019_SealeCarlisleWetmoreFloweMickes/testInput.xlsx
+++ b/data/published/2019_SealeCarlisleWetmoreFloweMickes/testInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2019_SealeCarlisleWetmoreFloweMickes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CF673-59C0-2C44-B631-D972C8EADC4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B03BC14-A96E-5E46-BF10-D75D0BDDB47D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="7100" windowWidth="38960" windowHeight="20800" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
+    <workbookView xWindow="11820" yWindow="5020" windowWidth="38960" windowHeight="20800" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>EqualVariance</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>maxiter</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E1()</t>
+  </si>
+  <si>
+    <t>[-1,60,80,100]</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D299942-CAD7-8B42-80C6-6BA1FC3BDCD5}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,40 +593,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -640,16 +640,16 @@
         <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>27</v>
@@ -658,16 +658,16 @@
         <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -678,37 +678,37 @@
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -716,40 +716,40 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -757,40 +757,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -798,86 +798,86 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
         <v>2000</v>
@@ -1008,22 +1008,22 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -1043,52 +1043,52 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/published/2019_SealeCarlisleWetmoreFloweMickes/testInput.xlsx
+++ b/data/published/2019_SealeCarlisleWetmoreFloweMickes/testInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2019_SealeCarlisleWetmoreFloweMickes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18ModellingProgramming/pyWitness/data/published/2019_SealeCarlisleWetmoreFloweMickes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B03BC14-A96E-5E46-BF10-D75D0BDDB47D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A713491-8B75-6C41-9545-8AE44A427FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="5020" windowWidth="38960" windowHeight="20800" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
+    <workbookView xWindow="11400" yWindow="10520" windowWidth="38960" windowHeight="17120" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="69">
   <si>
     <t>Data translator</t>
   </si>
@@ -196,6 +196,51 @@
   </si>
   <si>
     <t>[-1,60,80,100]</t>
+  </si>
+  <si>
+    <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+  </si>
+  <si>
+    <t>condition Video</t>
+  </si>
+  <si>
+    <t>condition Photo</t>
+  </si>
+  <si>
+    <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+  </si>
+  <si>
+    <t>condition 2-laps</t>
+  </si>
+  <si>
+    <t>condition 1-lap</t>
+  </si>
+  <si>
+    <t>condition Choice</t>
+  </si>
+  <si>
+    <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+  </si>
+  <si>
+    <t>condition Choice Lap</t>
+  </si>
+  <si>
+    <t>condition Single Lap</t>
+  </si>
+  <si>
+    <t>condition Double Lap</t>
+  </si>
+  <si>
+    <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+  </si>
+  <si>
+    <t>condition 6-member</t>
+  </si>
+  <si>
+    <t>condition 9-member</t>
+  </si>
+  <si>
+    <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
   </si>
 </sst>
 </file>
@@ -573,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D299942-CAD7-8B42-80C6-6BA1FC3BDCD5}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:CG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,10 +630,31 @@
     <col min="2" max="7" width="20.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="13" width="16.83203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="19" width="20.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5" style="1" customWidth="1"/>
+    <col min="21" max="25" width="16.83203125" style="1" customWidth="1"/>
+    <col min="26" max="31" width="20.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5" style="1" customWidth="1"/>
+    <col min="33" max="37" width="16.83203125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
+    <col min="39" max="43" width="16.83203125" style="1" customWidth="1"/>
+    <col min="44" max="49" width="20.83203125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="19.5" style="1" customWidth="1"/>
+    <col min="51" max="55" width="16.83203125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="19.5" style="1" customWidth="1"/>
+    <col min="57" max="61" width="16.83203125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="19.5" style="1" customWidth="1"/>
+    <col min="63" max="67" width="16.83203125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="19.5" style="1" customWidth="1"/>
+    <col min="69" max="73" width="16.83203125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="19.5" style="1" customWidth="1"/>
+    <col min="75" max="79" width="16.83203125" style="1" customWidth="1"/>
+    <col min="80" max="80" width="19.5" style="1" customWidth="1"/>
+    <col min="81" max="85" width="16.83203125" style="1" customWidth="1"/>
+    <col min="86" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,8 +694,224 @@
       <c r="M1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -669,8 +951,224 @@
       <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,8 +1208,224 @@
       <c r="M3" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,8 +1465,224 @@
       <c r="M4" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CC4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,8 +1722,224 @@
       <c r="M5" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BX5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,8 +1979,224 @@
       <c r="M6" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CB6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CC6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CE6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -874,8 +2236,224 @@
       <c r="M7" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BY7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CD7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CE7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CG7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -915,43 +2493,259 @@
       <c r="M8" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BS8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BT8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BY8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="BZ8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="CA8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="CB8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="CC8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="CD8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="CE8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="CF8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="CG8" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
